--- a/AAA-Luban-Excel/Datas/ActiveSkills.xlsx
+++ b/AAA-Luban-Excel/Datas/ActiveSkills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA61B02-CCEC-499A-BB39-F070BDEAA35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5AD723-7763-4D16-BFF7-CB3C1667AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5708" yWindow="113" windowWidth="13680" windowHeight="13079" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="2183" windowWidth="20520" windowHeight="7934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>SkillEffectID</t>
-  </si>
-  <si>
-    <t>SustainTime</t>
   </si>
   <si>
     <t>##type</t>
@@ -89,7 +86,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>San值-30，下一次解锁物件时将不需要钥匙</t>
+    <t>San值-25，下一次解锁物件时将不需要钥匙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -447,10 +444,9 @@
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="15.265625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.3984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.86328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,77 +468,68 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -553,31 +540,25 @@
       <c r="G5" s="1">
         <v>1010</v>
       </c>
-      <c r="H5" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
       <c r="F6" s="1">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="G6" s="1">
         <v>1011</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/ActiveSkills.xlsx
+++ b/AAA-Luban-Excel/Datas/ActiveSkills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5AD723-7763-4D16-BFF7-CB3C1667AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77380594-D0AB-4CC5-BE66-F019C87AD578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="2183" windowWidth="20520" windowHeight="7934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2062" yWindow="458" windowWidth="13681" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,12 +72,6 @@
     <t>##</t>
   </si>
   <si>
-    <t>千知万晓的洞开</t>
-  </si>
-  <si>
-    <t>砰！然后心动的射击</t>
-  </si>
-  <si>
     <t>技能效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,6 +81,14 @@
   </si>
   <si>
     <t>San值-25，下一次解锁物件时将不需要钥匙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>膛线与真理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无界通行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -106,6 +108,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -147,7 +150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -161,6 +164,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -518,18 +524,18 @@
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1001</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -545,11 +551,11 @@
       <c r="B6" s="1">
         <v>1002</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>

--- a/AAA-Luban-Excel/Datas/ActiveSkills.xlsx
+++ b/AAA-Luban-Excel/Datas/ActiveSkills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77380594-D0AB-4CC5-BE66-F019C87AD578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EE70D7-F2AD-4EA9-87F1-54BBD55CE27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2062" yWindow="458" windowWidth="13681" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="0" windowWidth="13680" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,15 +80,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>San值-25，下一次解锁物件时将不需要钥匙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>膛线与真理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无界通行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San值-25，下一次解锁被缠绕的物件时将无视代价</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -532,10 +532,10 @@
         <v>1001</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -552,7 +552,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
